--- a/biology/Botanique/Mubala/Mubala.xlsx
+++ b/biology/Botanique/Mubala/Mubala.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pentaclethra macrophylla
 Le Mubala, Pentaclethra macrophylla Benth., est un arbre d’Afrique qui appartient à la famille des fabacées. Il pousse en Afrique tropicale et équatoriale occidentale.
@@ -512,7 +524,9 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On retrouve le Mubala dans les pays suivants :
 Angola
@@ -561,11 +575,13 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les feuilles de Mubala sont utilisées pour produire un extrait utilisé comme antidiarrhéique dans la médecine traditionnelle[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles de Mubala sont utilisées pour produire un extrait utilisé comme antidiarrhéique dans la médecine traditionnelle.
 Ses graines sont aussi utilisées comme poison pour poisson et sont mangées avec des fourmis rouges pour provoquer l’avortement.
-L’huile extraite des graines est utilisée pour la cuisine, la production de bougie et de savon[3].
+L’huile extraite des graines est utilisée pour la cuisine, la production de bougie et de savon.
 </t>
         </is>
       </c>
